--- a/biology/Zoologie/Bifenthrine/Bifenthrine.xlsx
+++ b/biology/Zoologie/Bifenthrine/Bifenthrine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La bifenthrine  est une substance active de produit phytosanitaire (ou produit phytopharmaceutique, ou pesticide), qui présente un effet insecticide et acaricide, et qui appartient à la famille chimique des Pyréthrinoïdes de synthèse.
@@ -512,11 +524,13 @@
           <t>Réglementation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Sur le plan de la réglementation des produits phytopharmaceutiques :
 pour l’Union européenne : Décision no 2009/887/CE du 30/11/09 décide la non-inscription de la bifenthrine à l'annexe I de la directive 91/414/CEE. Les produits phytopharmaceutiques contenant cette substance devront être retirés du marché.
-pour la France : cette substance active est interdite dans la composition de préparations biocides TP18 à partir du 1er novembre 2013[3].</t>
+pour la France : cette substance active est interdite dans la composition de préparations biocides TP18 à partir du 1er novembre 2013.</t>
         </is>
       </c>
     </row>
@@ -544,7 +558,9 @@
           <t>Caractéristiques physico-chimiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les caractéristiques physico-chimiques dont l'ordre de grandeur est indiqué ci-après, influencent les risques de transfert de cette substance active vers les eaux, et le risque de pollution des eaux :
 Hydrolyse à pH 7 : très stable,
@@ -578,7 +594,9 @@
           <t>Écotoxicologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Sur le plan de l’écotoxicologie, les concentrations létales 50 (CL50) dont l'ordre de grandeur est indiqué ci-après, sont observées :
 CL50 sur poissons : 2×10-4 mg·L-1,
@@ -586,7 +604,7 @@
 CL50 sur algues : &gt; 10 mg·L-1,
 CL50 sur rats : 50 mg·kg-1.
 Rôle de la température : 
-Une étude de toxicité sur les fourmis a montré que la mortalité de ce produit augmentait (pour les fourmis) à 27-29 °C (par rapport à 21-23 °C). Ce phénomène de toxicité aggravée par la chaleur n'a été constaté que pour la bifenthrine, et non pour les autres traitements fait lors de ce test[4] (et le groupe témoin n'a pas réagi au réchauffement du milieu à 27-29 °C [4]). Le transfert horizontal de toxicité semble également bien moindre pour la bifenthrine que pour le fipronil ou la β-cyfluthrine[4].
+Une étude de toxicité sur les fourmis a montré que la mortalité de ce produit augmentait (pour les fourmis) à 27-29 °C (par rapport à 21-23 °C). Ce phénomène de toxicité aggravée par la chaleur n'a été constaté que pour la bifenthrine, et non pour les autres traitements fait lors de ce test (et le groupe témoin n'a pas réagi au réchauffement du milieu à 27-29 °C ). Le transfert horizontal de toxicité semble également bien moindre pour la bifenthrine que pour le fipronil ou la β-cyfluthrine.
 </t>
         </is>
       </c>
@@ -615,9 +633,11 @@
           <t>Cancérogène probable</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La bifenthrine est classée comme cancérogène probable[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La bifenthrine est classée comme cancérogène probable.
 </t>
         </is>
       </c>
@@ -646,7 +666,9 @@
           <t>Toxicité pour l’homme</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Sur le plan de la toxicité pour l’Homme, la dose journalière acceptable (DJA) est de l’ordre de : 0,015 mg·kg-1·j-1.
 </t>
